--- a/data/pca/factorExposure/factorExposure_2019-03-11.xlsx
+++ b/data/pca/factorExposure/factorExposure_2019-03-11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,15 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +732,115 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>-0.1205495184397509</v>
+        <v>-0.07615653335994621</v>
       </c>
       <c r="C2">
-        <v>0.01006506371989476</v>
+        <v>0.03467624485791108</v>
       </c>
       <c r="D2">
-        <v>0.04947253984607394</v>
+        <v>0.01194018810400145</v>
       </c>
       <c r="E2">
-        <v>0.1256328943174319</v>
+        <v>-0.04086379360950634</v>
       </c>
       <c r="F2">
-        <v>0.1033557781987925</v>
+        <v>0.1406723082935625</v>
       </c>
       <c r="G2">
-        <v>-0.0379324221789752</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.1062941804638745</v>
+      </c>
+      <c r="H2">
+        <v>-0.05813864257122976</v>
+      </c>
+      <c r="I2">
+        <v>-0.02945767087997195</v>
+      </c>
+      <c r="J2">
+        <v>-0.06699330726111732</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>-0.215626507617462</v>
+        <v>-0.1706793199976286</v>
       </c>
       <c r="C3">
-        <v>0.1433837604656875</v>
+        <v>0.08995908732377786</v>
       </c>
       <c r="D3">
-        <v>-0.04214762852999607</v>
+        <v>-0.03638509563773222</v>
       </c>
       <c r="E3">
-        <v>0.3341885701331317</v>
+        <v>0.009490793949548715</v>
       </c>
       <c r="F3">
-        <v>0.01088814348421561</v>
+        <v>0.3732211553018247</v>
       </c>
       <c r="G3">
-        <v>-0.07779060351257536</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>-0.09977670134088512</v>
+      </c>
+      <c r="H3">
+        <v>-0.2829766192410654</v>
+      </c>
+      <c r="I3">
+        <v>-0.187616281205933</v>
+      </c>
+      <c r="J3">
+        <v>-0.2392060393426019</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>-0.09462351451528353</v>
+        <v>-0.07497679395297813</v>
       </c>
       <c r="C4">
-        <v>0.04077063738597166</v>
+        <v>0.03433035449586624</v>
       </c>
       <c r="D4">
-        <v>0.02376186685784199</v>
+        <v>-0.02740887286316387</v>
       </c>
       <c r="E4">
-        <v>0.07466900611915879</v>
+        <v>-0.03730978151457841</v>
       </c>
       <c r="F4">
-        <v>0.03005235222843292</v>
+        <v>0.08120205940187525</v>
       </c>
       <c r="G4">
-        <v>-0.03168414968694985</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.04710477114843779</v>
+      </c>
+      <c r="H4">
+        <v>-0.02352420316436125</v>
+      </c>
+      <c r="I4">
+        <v>-0.03091080418561411</v>
+      </c>
+      <c r="J4">
+        <v>-0.05867554422263945</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +860,307 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>-0.01760616450316677</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.008902909395324492</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>-0.009991775225629346</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>-0.005424237889111176</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.00394060190158367</v>
       </c>
       <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.02108667988713517</v>
+      </c>
+      <c r="H6">
+        <v>0.0005277431577338894</v>
+      </c>
+      <c r="I6">
+        <v>0.01378154812014415</v>
+      </c>
+      <c r="J6">
+        <v>-0.00140270032546726</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>-0.04286684160147285</v>
+        <v>-0.03540039199145451</v>
       </c>
       <c r="C7">
-        <v>0.0154556920953244</v>
+        <v>0.00321827091821528</v>
       </c>
       <c r="D7">
-        <v>0.03630738716294741</v>
+        <v>-0.03980257340516267</v>
       </c>
       <c r="E7">
-        <v>0.07506273869191464</v>
+        <v>-0.02905850704999053</v>
       </c>
       <c r="F7">
-        <v>-0.05338187705141655</v>
+        <v>0.05498065876251144</v>
       </c>
       <c r="G7">
-        <v>0.01255154097324203</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.005555164187936903</v>
+      </c>
+      <c r="H7">
+        <v>-0.0458430728034268</v>
+      </c>
+      <c r="I7">
+        <v>-0.0005198195222726893</v>
+      </c>
+      <c r="J7">
+        <v>-0.05590102265975378</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>-0.04378539736030546</v>
+        <v>-0.031110250683731</v>
       </c>
       <c r="C8">
-        <v>0.0536864402534978</v>
+        <v>0.04124609797810645</v>
       </c>
       <c r="D8">
-        <v>0.004309872604462595</v>
+        <v>-0.03009699976738382</v>
       </c>
       <c r="E8">
-        <v>0.07331051323716048</v>
+        <v>-0.0179437194265206</v>
       </c>
       <c r="F8">
-        <v>0.00440573045381888</v>
+        <v>0.0721061057635025</v>
       </c>
       <c r="G8">
-        <v>-0.01432811003271533</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.02242596228062277</v>
+      </c>
+      <c r="H8">
+        <v>-0.04417431950859521</v>
+      </c>
+      <c r="I8">
+        <v>-0.03412118089818407</v>
+      </c>
+      <c r="J8">
+        <v>-0.06077134384999166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>-0.08328870383476762</v>
+        <v>-0.06166170695541205</v>
       </c>
       <c r="C9">
-        <v>0.03993064583978762</v>
+        <v>0.03165950394408553</v>
       </c>
       <c r="D9">
-        <v>0.03235864627700419</v>
+        <v>-0.03168584233024507</v>
       </c>
       <c r="E9">
-        <v>0.06194471324458206</v>
+        <v>-0.03278543301579053</v>
       </c>
       <c r="F9">
-        <v>0.01673963670758161</v>
+        <v>0.08235920097100113</v>
       </c>
       <c r="G9">
-        <v>-0.04608499713836019</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.04355980328409034</v>
+      </c>
+      <c r="H9">
+        <v>-0.02065708809297219</v>
+      </c>
+      <c r="I9">
+        <v>-0.01332172022998375</v>
+      </c>
+      <c r="J9">
+        <v>-0.03658343859767523</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>-0.01413346663089477</v>
+        <v>-0.02578350540038834</v>
       </c>
       <c r="C10">
-        <v>-0.1588237488251335</v>
+        <v>-0.1407571625758954</v>
       </c>
       <c r="D10">
-        <v>-0.03017556306079884</v>
+        <v>0.06679410480451267</v>
       </c>
       <c r="E10">
-        <v>0.07122146540542677</v>
+        <v>0.02904709487273644</v>
       </c>
       <c r="F10">
-        <v>0.01240867396167488</v>
+        <v>0.06696901393403512</v>
       </c>
       <c r="G10">
-        <v>0.01121903633508314</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.02244632689185283</v>
+      </c>
+      <c r="H10">
+        <v>-0.002827849493304551</v>
+      </c>
+      <c r="I10">
+        <v>-0.1080006087199025</v>
+      </c>
+      <c r="J10">
+        <v>0.004115530881625261</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>-0.05852705015118707</v>
+        <v>-0.05072868423616155</v>
       </c>
       <c r="C11">
-        <v>0.01392046238572345</v>
+        <v>0.02788369753354465</v>
       </c>
       <c r="D11">
-        <v>-0.00645150850502294</v>
+        <v>-0.00310182389315948</v>
       </c>
       <c r="E11">
-        <v>0.04392393568235038</v>
+        <v>-0.008347788135462868</v>
       </c>
       <c r="F11">
-        <v>0.004498133438203453</v>
+        <v>0.04017638987932642</v>
       </c>
       <c r="G11">
-        <v>0.01273550060367367</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.006854320045065929</v>
+      </c>
+      <c r="H11">
+        <v>-0.001954389544362363</v>
+      </c>
+      <c r="I11">
+        <v>0.01062331274248301</v>
+      </c>
+      <c r="J11">
+        <v>-0.04568030674971266</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>-0.04530689340618525</v>
+        <v>-0.04795502974989851</v>
       </c>
       <c r="C12">
-        <v>0.01760645633720915</v>
+        <v>0.02088558976593828</v>
       </c>
       <c r="D12">
-        <v>-0.003034492307745244</v>
+        <v>-0.01202695938088585</v>
       </c>
       <c r="E12">
-        <v>0.030677831996036</v>
+        <v>-0.01050926035295227</v>
       </c>
       <c r="F12">
-        <v>-0.009267619105540595</v>
+        <v>0.01558668761849783</v>
       </c>
       <c r="G12">
-        <v>-0.004122883743192457</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.002229338034066436</v>
+      </c>
+      <c r="H12">
+        <v>-0.004234548526026451</v>
+      </c>
+      <c r="I12">
+        <v>0.006886889121764214</v>
+      </c>
+      <c r="J12">
+        <v>-0.0313298689747922</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>-0.06367137892259407</v>
+        <v>-0.04244056981871792</v>
       </c>
       <c r="C13">
-        <v>0.02825649598036828</v>
+        <v>0.03038657537332886</v>
       </c>
       <c r="D13">
-        <v>-0.00748907806798439</v>
+        <v>0.004761648918380255</v>
       </c>
       <c r="E13">
-        <v>0.1124158250985037</v>
+        <v>-0.009181555926223339</v>
       </c>
       <c r="F13">
-        <v>0.01241850329318953</v>
+        <v>0.1059648777307273</v>
       </c>
       <c r="G13">
-        <v>-3.455741562748233e-05</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.02291147125195056</v>
+      </c>
+      <c r="H13">
+        <v>-0.04544925085709774</v>
+      </c>
+      <c r="I13">
+        <v>-0.006732549623320463</v>
+      </c>
+      <c r="J13">
+        <v>-0.05734671014777327</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>-0.03358837046553443</v>
+        <v>-0.02836044313878557</v>
       </c>
       <c r="C14">
-        <v>0.02108238138014331</v>
+        <v>0.01643925793190943</v>
       </c>
       <c r="D14">
-        <v>0.02737637371538439</v>
+        <v>-0.01236839489381876</v>
       </c>
       <c r="E14">
-        <v>0.03319769856479801</v>
+        <v>-0.02559584451275114</v>
       </c>
       <c r="F14">
-        <v>0.01386932185827648</v>
+        <v>0.04097822672576876</v>
       </c>
       <c r="G14">
-        <v>0.02163910970840222</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.02957501306961492</v>
+      </c>
+      <c r="H14">
+        <v>-0.05058304458759953</v>
+      </c>
+      <c r="I14">
+        <v>-0.007447877619414682</v>
+      </c>
+      <c r="J14">
+        <v>-0.01465051346399187</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1180,51 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>-0.04789101561438908</v>
+        <v>-0.04503715888398454</v>
       </c>
       <c r="C16">
-        <v>0.02767786010917828</v>
+        <v>0.03220793450430873</v>
       </c>
       <c r="D16">
-        <v>-0.01019793820654533</v>
+        <v>-0.01141652521532323</v>
       </c>
       <c r="E16">
-        <v>0.03318484872424368</v>
+        <v>-0.005304756210715523</v>
       </c>
       <c r="F16">
-        <v>-0.01018584505759421</v>
+        <v>0.03388268031607879</v>
       </c>
       <c r="G16">
-        <v>0.006224921540302836</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.005304221336063592</v>
+      </c>
+      <c r="H16">
+        <v>-0.009205756951225646</v>
+      </c>
+      <c r="I16">
+        <v>0.008926861325212967</v>
+      </c>
+      <c r="J16">
+        <v>-0.03894787678211923</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1244,19 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1276,115 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B19">
-        <v>-0.05318555636223781</v>
+        <v>-0.04884912715926717</v>
       </c>
       <c r="C19">
-        <v>0.04003348893330318</v>
+        <v>0.0399543666099323</v>
       </c>
       <c r="D19">
-        <v>-0.003613209160413688</v>
+        <v>-0.01414372342330988</v>
       </c>
       <c r="E19">
-        <v>0.0767650294015548</v>
+        <v>-0.01757465237367183</v>
       </c>
       <c r="F19">
-        <v>-0.01652611047717286</v>
+        <v>0.08010735165503549</v>
       </c>
       <c r="G19">
-        <v>0.02917469667283868</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>-0.01223436124596444</v>
+      </c>
+      <c r="H19">
+        <v>-0.08250046358304942</v>
+      </c>
+      <c r="I19">
+        <v>-0.03427531184009499</v>
+      </c>
+      <c r="J19">
+        <v>-0.04930703762184351</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>-0.03530191615449342</v>
+        <v>-0.01897774881437918</v>
       </c>
       <c r="C20">
-        <v>0.04442324404285653</v>
+        <v>0.02688815833583791</v>
       </c>
       <c r="D20">
-        <v>0.01280183327887104</v>
+        <v>-0.01846892350687099</v>
       </c>
       <c r="E20">
-        <v>0.06952977688410036</v>
+        <v>-0.01891808376928216</v>
       </c>
       <c r="F20">
-        <v>-0.01153081289598155</v>
+        <v>0.06753314508713922</v>
       </c>
       <c r="G20">
-        <v>0.007368478954220309</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.01538342328912122</v>
+      </c>
+      <c r="H20">
+        <v>-0.06870329381898713</v>
+      </c>
+      <c r="I20">
+        <v>-0.02020169176234644</v>
+      </c>
+      <c r="J20">
+        <v>-0.07846769352082081</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>-0.03859513834236139</v>
+        <v>-0.02657899153391154</v>
       </c>
       <c r="C21">
-        <v>0.03315763694610006</v>
+        <v>0.02545367845541549</v>
       </c>
       <c r="D21">
-        <v>-0.0001229030661535038</v>
+        <v>-0.02531155783320203</v>
       </c>
       <c r="E21">
-        <v>0.1065167820952855</v>
+        <v>-0.00809562297891453</v>
       </c>
       <c r="F21">
-        <v>0.04551703498797552</v>
+        <v>0.07848096693298015</v>
       </c>
       <c r="G21">
-        <v>-0.005842869270283894</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.03586148837375745</v>
+      </c>
+      <c r="H21">
+        <v>-0.02211465996983729</v>
+      </c>
+      <c r="I21">
+        <v>0.01311974009372825</v>
+      </c>
+      <c r="J21">
+        <v>-0.0276335015579013</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1404,19 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1436,371 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>-0.0510490137597109</v>
+        <v>-0.04387595888588827</v>
       </c>
       <c r="C24">
-        <v>0.02123310861970011</v>
+        <v>0.02194453467797326</v>
       </c>
       <c r="D24">
-        <v>-0.002078817802360308</v>
+        <v>-0.007006945174836962</v>
       </c>
       <c r="E24">
-        <v>0.04577243286315368</v>
+        <v>-0.01050555692917132</v>
       </c>
       <c r="F24">
-        <v>-0.009497075886702639</v>
+        <v>0.04094372313686954</v>
       </c>
       <c r="G24">
-        <v>-0.002128097249538417</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.004406174076596168</v>
+      </c>
+      <c r="H24">
+        <v>-0.008443218817232971</v>
+      </c>
+      <c r="I24">
+        <v>0.00612266838826413</v>
+      </c>
+      <c r="J24">
+        <v>-0.04428678909244865</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>-0.05188568126367687</v>
+        <v>-0.04692267209220181</v>
       </c>
       <c r="C25">
-        <v>0.01029984479974761</v>
+        <v>0.02071374069442532</v>
       </c>
       <c r="D25">
-        <v>-0.004603781134238634</v>
+        <v>-0.005255142902344306</v>
       </c>
       <c r="E25">
-        <v>0.04242323124344777</v>
+        <v>-0.008740614219615335</v>
       </c>
       <c r="F25">
-        <v>0.004550015542667718</v>
+        <v>0.04421026009779667</v>
       </c>
       <c r="G25">
-        <v>0.00160966555028757</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.004831791154612399</v>
+      </c>
+      <c r="H25">
+        <v>0.0007340287769368622</v>
+      </c>
+      <c r="I25">
+        <v>0.0117103406143368</v>
+      </c>
+      <c r="J25">
+        <v>-0.03809028506785574</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>-0.01915271205490957</v>
+        <v>-0.01685067738856703</v>
       </c>
       <c r="C26">
-        <v>0.02829833429824547</v>
+        <v>0.02328742848022182</v>
       </c>
       <c r="D26">
-        <v>0.003716351436906935</v>
+        <v>-0.004794139404563322</v>
       </c>
       <c r="E26">
-        <v>0.04047247947510933</v>
+        <v>6.534984810098247e-05</v>
       </c>
       <c r="F26">
-        <v>0.02186863681130671</v>
+        <v>0.04799774340418648</v>
       </c>
       <c r="G26">
-        <v>0.02435759938185734</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.02286619022289458</v>
+      </c>
+      <c r="H26">
+        <v>-0.03176053209168787</v>
+      </c>
+      <c r="I26">
+        <v>0.006399576737624724</v>
+      </c>
+      <c r="J26">
+        <v>-0.03768219454723237</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B27">
-        <v>-0.1148352198404254</v>
+        <v>-0.07765940773752709</v>
       </c>
       <c r="C27">
-        <v>0.03258108624101001</v>
+        <v>0.02537295831874971</v>
       </c>
       <c r="D27">
-        <v>0.02044689068412468</v>
+        <v>-0.01321684805478989</v>
       </c>
       <c r="E27">
-        <v>0.09823452862074317</v>
+        <v>-0.03393176287588266</v>
       </c>
       <c r="F27">
-        <v>0.004258361692689009</v>
+        <v>0.06868914305562099</v>
       </c>
       <c r="G27">
-        <v>-0.0110927424956009</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>-0.01756471189236897</v>
+      </c>
+      <c r="H27">
+        <v>-0.01208108360854638</v>
+      </c>
+      <c r="I27">
+        <v>-0.02497518940698284</v>
+      </c>
+      <c r="J27">
+        <v>-0.04200372806044909</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>-0.009155420319917989</v>
+        <v>-0.03999417947334809</v>
       </c>
       <c r="C28">
-        <v>-0.2416325381451247</v>
+        <v>-0.2180670791534024</v>
       </c>
       <c r="D28">
-        <v>-0.03041231431492761</v>
+        <v>0.09216674500586533</v>
       </c>
       <c r="E28">
-        <v>0.04971132405687397</v>
+        <v>0.04431191269277103</v>
       </c>
       <c r="F28">
-        <v>0.02996898835422379</v>
+        <v>0.05758561735355811</v>
       </c>
       <c r="G28">
-        <v>0.0001157326830148366</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.02403431828695408</v>
+      </c>
+      <c r="H28">
+        <v>0.003637586704510131</v>
+      </c>
+      <c r="I28">
+        <v>-0.1550730037308964</v>
+      </c>
+      <c r="J28">
+        <v>-0.0004628488991737674</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>-0.02305063397821297</v>
+        <v>-0.02279548641910508</v>
       </c>
       <c r="C29">
-        <v>0.0249448509080307</v>
+        <v>0.0151648979196257</v>
       </c>
       <c r="D29">
-        <v>0.02980831185530335</v>
+        <v>-0.0167946814083814</v>
       </c>
       <c r="E29">
-        <v>0.0341857215933551</v>
+        <v>-0.02579119460479934</v>
       </c>
       <c r="F29">
-        <v>0.01601950114476813</v>
+        <v>0.03567871810279821</v>
       </c>
       <c r="G29">
-        <v>0.008742314812738766</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.03127208520190294</v>
+      </c>
+      <c r="H29">
+        <v>-0.04819674425984558</v>
+      </c>
+      <c r="I29">
+        <v>-0.001420593471207498</v>
+      </c>
+      <c r="J29">
+        <v>-0.009036623884440258</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>-0.1146881159166416</v>
+        <v>-0.0916278928105809</v>
       </c>
       <c r="C30">
-        <v>0.01968203438280795</v>
+        <v>0.05660180564002047</v>
       </c>
       <c r="D30">
-        <v>0.0260341097540283</v>
+        <v>0.01924880052242042</v>
       </c>
       <c r="E30">
-        <v>0.1064490719440513</v>
+        <v>-0.03114361576806147</v>
       </c>
       <c r="F30">
-        <v>-0.01053401848216956</v>
+        <v>0.1022331113729838</v>
       </c>
       <c r="G30">
-        <v>0.0271666989915729</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.01373652326191837</v>
+      </c>
+      <c r="H30">
+        <v>-0.02241065517700169</v>
+      </c>
+      <c r="I30">
+        <v>0.01255257203788498</v>
+      </c>
+      <c r="J30">
+        <v>-0.03173229075138363</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>-0.06677907163872104</v>
+        <v>-0.06329657898872973</v>
       </c>
       <c r="C31">
-        <v>0.01558370635728067</v>
+        <v>0.02357474255738512</v>
       </c>
       <c r="D31">
-        <v>0.01721077694780247</v>
+        <v>0.003832195170516069</v>
       </c>
       <c r="E31">
-        <v>-0.01561551026057417</v>
+        <v>-0.02176668241941091</v>
       </c>
       <c r="F31">
-        <v>0.01848540384508929</v>
+        <v>0.002977563744499895</v>
       </c>
       <c r="G31">
-        <v>0.05040658408133625</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.04217371742159542</v>
+      </c>
+      <c r="H31">
+        <v>-0.02846285266945892</v>
+      </c>
+      <c r="I31">
+        <v>-0.01237944469105756</v>
+      </c>
+      <c r="J31">
+        <v>-0.01444160400475487</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B32">
-        <v>-0.06459900890872337</v>
+        <v>-0.04467961300774743</v>
       </c>
       <c r="C32">
-        <v>0.03755880080425416</v>
+        <v>0.04113358948112789</v>
       </c>
       <c r="D32">
-        <v>0.01088116545657917</v>
+        <v>-0.03226869116927977</v>
       </c>
       <c r="E32">
-        <v>0.1064031235327859</v>
+        <v>-0.02935322448638211</v>
       </c>
       <c r="F32">
-        <v>-0.01168373835390768</v>
+        <v>0.08687901423207305</v>
       </c>
       <c r="G32">
-        <v>0.0188524901537165</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.01429350289276651</v>
+      </c>
+      <c r="H32">
+        <v>-0.03784450101070789</v>
+      </c>
+      <c r="I32">
+        <v>-0.02325355449836316</v>
+      </c>
+      <c r="J32">
+        <v>-0.04710018639565051</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>-0.06824062270274039</v>
+        <v>-0.05795386999504918</v>
       </c>
       <c r="C33">
-        <v>0.04600301586212901</v>
+        <v>0.05492838014470781</v>
       </c>
       <c r="D33">
-        <v>0.01016289346310174</v>
+        <v>-0.001500203956908945</v>
       </c>
       <c r="E33">
-        <v>0.07677711671605728</v>
+        <v>-0.01153688970093687</v>
       </c>
       <c r="F33">
-        <v>0.04520929791577009</v>
+        <v>0.07749430857100111</v>
       </c>
       <c r="G33">
-        <v>0.01254601385662516</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.03701854324043504</v>
+      </c>
+      <c r="H33">
+        <v>-0.03745357196837897</v>
+      </c>
+      <c r="I33">
+        <v>0.01134689102336011</v>
+      </c>
+      <c r="J33">
+        <v>-0.05213260789697215</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>-0.04851334188191437</v>
+        <v>-0.04555719633215765</v>
       </c>
       <c r="C34">
-        <v>0.02107108030416122</v>
+        <v>0.02685632286584694</v>
       </c>
       <c r="D34">
-        <v>0.001154560766486596</v>
+        <v>-0.01433265605152312</v>
       </c>
       <c r="E34">
-        <v>0.02811765316532888</v>
+        <v>-0.01572881627638649</v>
       </c>
       <c r="F34">
-        <v>-0.007687286123113996</v>
+        <v>0.03120025834697198</v>
       </c>
       <c r="G34">
-        <v>0.004505375810870236</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.0006630112258036647</v>
+      </c>
+      <c r="H34">
+        <v>-0.01153404303384725</v>
+      </c>
+      <c r="I34">
+        <v>0.006336461292020868</v>
+      </c>
+      <c r="J34">
+        <v>-0.03454002717432446</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1820,51 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>-0.01271149928871705</v>
+        <v>-0.01584461648618506</v>
       </c>
       <c r="C36">
-        <v>-0.0001787632573091381</v>
+        <v>0.000825974504133243</v>
       </c>
       <c r="D36">
-        <v>0.008004159959039086</v>
+        <v>-0.005214508994981181</v>
       </c>
       <c r="E36">
-        <v>0.02609342026618947</v>
+        <v>-0.0102061788129557</v>
       </c>
       <c r="F36">
-        <v>0.01035547817554608</v>
+        <v>0.02793692220043548</v>
       </c>
       <c r="G36">
-        <v>0.01498525631975745</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.02387407992283553</v>
+      </c>
+      <c r="H36">
+        <v>-0.02685514763705044</v>
+      </c>
+      <c r="I36">
+        <v>0.004768768773962703</v>
+      </c>
+      <c r="J36">
+        <v>-0.002569486415964118</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1884,243 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>-0.05149483851972821</v>
+        <v>-0.03683123339683095</v>
       </c>
       <c r="C38">
-        <v>0.01759744320560733</v>
+        <v>0.01183060129352153</v>
       </c>
       <c r="D38">
-        <v>0.0245710412687783</v>
+        <v>-0.007310836441396391</v>
       </c>
       <c r="E38">
-        <v>0.0292431575677876</v>
+        <v>-0.013539291880722</v>
       </c>
       <c r="F38">
-        <v>0.0006857660873166258</v>
+        <v>0.04981323861379764</v>
       </c>
       <c r="G38">
-        <v>-0.02853146026497478</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.02896225638354796</v>
+      </c>
+      <c r="H38">
+        <v>-0.01200910200167234</v>
+      </c>
+      <c r="I38">
+        <v>0.01415420154285341</v>
+      </c>
+      <c r="J38">
+        <v>-0.002822466160141715</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>-0.07388250882878861</v>
+        <v>-0.05776125643237467</v>
       </c>
       <c r="C39">
-        <v>0.01924622613941904</v>
+        <v>0.04072223394215149</v>
       </c>
       <c r="D39">
-        <v>0.00331456338823621</v>
+        <v>-0.01017860243153266</v>
       </c>
       <c r="E39">
-        <v>0.04303960976751665</v>
+        <v>-0.01680189861312703</v>
       </c>
       <c r="F39">
-        <v>0.01363362651100853</v>
+        <v>0.05489741219755921</v>
       </c>
       <c r="G39">
-        <v>0.00137020609779589</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.0170799984997522</v>
+      </c>
+      <c r="H39">
+        <v>-0.001798917170422924</v>
+      </c>
+      <c r="I39">
+        <v>0.02933377501725782</v>
+      </c>
+      <c r="J39">
+        <v>-0.04802573253792094</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>-0.07778590487373285</v>
+        <v>-0.05748777167949044</v>
       </c>
       <c r="C40">
-        <v>0.04327737907201882</v>
+        <v>0.04547528400060974</v>
       </c>
       <c r="D40">
-        <v>0.007714194344490079</v>
+        <v>0.004894432753148334</v>
       </c>
       <c r="E40">
-        <v>0.1074170473178881</v>
+        <v>-0.02388707923318093</v>
       </c>
       <c r="F40">
-        <v>0.02165723519947816</v>
+        <v>0.09506235046174835</v>
       </c>
       <c r="G40">
-        <v>-0.02395561277502702</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.02450187397012896</v>
+      </c>
+      <c r="H40">
+        <v>-0.05240142856096565</v>
+      </c>
+      <c r="I40">
+        <v>-0.01566860307222042</v>
+      </c>
+      <c r="J40">
+        <v>-0.1165941438805358</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B41">
-        <v>-0.001769504682495245</v>
+        <v>-0.003226541442160658</v>
       </c>
       <c r="C41">
-        <v>0.02165330087964994</v>
+        <v>0.01308249977148971</v>
       </c>
       <c r="D41">
-        <v>0.02786919806336661</v>
+        <v>-0.006232774999311284</v>
       </c>
       <c r="E41">
-        <v>0.01410127433478423</v>
+        <v>-0.008979149715594499</v>
       </c>
       <c r="F41">
-        <v>0.03355726192996079</v>
+        <v>0.01485154574008567</v>
       </c>
       <c r="G41">
-        <v>0.01383115982080818</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.03772390496354296</v>
+      </c>
+      <c r="H41">
+        <v>-0.02918172253717996</v>
+      </c>
+      <c r="I41">
+        <v>-0.02239440576232141</v>
+      </c>
+      <c r="J41">
+        <v>-0.01018525545979008</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B42">
-        <v>-0.1395949140406583</v>
+        <v>-0.2263160171270326</v>
       </c>
       <c r="C42">
-        <v>0.208328111508442</v>
+        <v>0.2143579705961271</v>
       </c>
       <c r="D42">
-        <v>-0.9250959645507001</v>
+        <v>-0.02627052000647494</v>
       </c>
       <c r="E42">
-        <v>-0.1070416202592094</v>
+        <v>0.9229973144857829</v>
       </c>
       <c r="F42">
-        <v>-0.01622919066353697</v>
+        <v>-0.1463418666843108</v>
       </c>
       <c r="G42">
-        <v>0.1296771411190696</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>0.001669675426843646</v>
+      </c>
+      <c r="H42">
+        <v>0.003442551885789052</v>
+      </c>
+      <c r="I42">
+        <v>-0.04559355071053595</v>
+      </c>
+      <c r="J42">
+        <v>-0.02980337928126139</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B43">
-        <v>-0.003168194354438625</v>
+        <v>-0.006267828530626417</v>
       </c>
       <c r="C43">
-        <v>0.02268953785885014</v>
+        <v>0.01490177768148215</v>
       </c>
       <c r="D43">
-        <v>0.01861312738264877</v>
+        <v>-0.003986598204141511</v>
       </c>
       <c r="E43">
-        <v>0.03693564980739655</v>
+        <v>-0.009125387968404433</v>
       </c>
       <c r="F43">
-        <v>0.0112717030968089</v>
+        <v>0.02918700540264853</v>
       </c>
       <c r="G43">
-        <v>0.01867840028898018</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.02221401588864915</v>
+      </c>
+      <c r="H43">
+        <v>-0.02902694782671485</v>
+      </c>
+      <c r="I43">
+        <v>-0.01253797296057159</v>
+      </c>
+      <c r="J43">
+        <v>-0.019188525825997</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B44">
-        <v>-0.04148580701428242</v>
+        <v>-0.03008654597152407</v>
       </c>
       <c r="C44">
-        <v>0.05067514508037473</v>
+        <v>0.03820914540086483</v>
       </c>
       <c r="D44">
-        <v>0.01355675085161216</v>
+        <v>-0.01740183554798772</v>
       </c>
       <c r="E44">
-        <v>0.1257751589004801</v>
+        <v>-0.009423559589154574</v>
       </c>
       <c r="F44">
-        <v>0.08737599479774628</v>
+        <v>0.121393782672429</v>
       </c>
       <c r="G44">
-        <v>0.02444272888888373</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.06443932713807742</v>
+      </c>
+      <c r="H44">
+        <v>-0.1028123589756912</v>
+      </c>
+      <c r="I44">
+        <v>-0.01933788689023034</v>
+      </c>
+      <c r="J44">
+        <v>-0.03078304715977496</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +2140,115 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B46">
-        <v>-0.02845003453722458</v>
+        <v>-0.0259121949114854</v>
       </c>
       <c r="C46">
-        <v>0.02523689129862739</v>
+        <v>0.0335905688113938</v>
       </c>
       <c r="D46">
-        <v>0.03123458788179206</v>
+        <v>-0.01110784060955855</v>
       </c>
       <c r="E46">
-        <v>0.0331515258114088</v>
+        <v>-0.02807852946302633</v>
       </c>
       <c r="F46">
-        <v>0.02889443041454389</v>
+        <v>0.04784651007138708</v>
       </c>
       <c r="G46">
-        <v>0.02054689717972207</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.02804708301385109</v>
+      </c>
+      <c r="H46">
+        <v>-0.04943094161047824</v>
+      </c>
+      <c r="I46">
+        <v>-0.0003504133736444913</v>
+      </c>
+      <c r="J46">
+        <v>-0.01930018468304878</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B47">
-        <v>-0.090245305906648</v>
+        <v>-0.0917544581891595</v>
       </c>
       <c r="C47">
-        <v>0.01223444807681665</v>
+        <v>0.01662939042211422</v>
       </c>
       <c r="D47">
-        <v>0.01576174472089674</v>
+        <v>0.001326951742573054</v>
       </c>
       <c r="E47">
-        <v>-0.01864714614485967</v>
+        <v>-0.02443582370865031</v>
       </c>
       <c r="F47">
-        <v>0.0148057768067266</v>
+        <v>-0.0102766642292574</v>
       </c>
       <c r="G47">
-        <v>0.02172202664309494</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.04350074189421513</v>
+      </c>
+      <c r="H47">
+        <v>-0.05252607432826464</v>
+      </c>
+      <c r="I47">
+        <v>-0.01926388258037939</v>
+      </c>
+      <c r="J47">
+        <v>-0.02588386947520256</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B48">
-        <v>-0.0183488093152006</v>
+        <v>-0.01919058518596483</v>
       </c>
       <c r="C48">
-        <v>0.02382048173000882</v>
+        <v>0.0176365846339678</v>
       </c>
       <c r="D48">
-        <v>0.01462637720657662</v>
+        <v>-0.008733150858470056</v>
       </c>
       <c r="E48">
-        <v>0.03210370703884013</v>
+        <v>-0.01317892202762228</v>
       </c>
       <c r="F48">
-        <v>0.01074200751578714</v>
+        <v>0.03077351489573839</v>
       </c>
       <c r="G48">
-        <v>0.005862553120273428</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.01595610607727973</v>
+      </c>
+      <c r="H48">
+        <v>-0.02061424216451221</v>
+      </c>
+      <c r="I48">
+        <v>-0.01117312458093635</v>
+      </c>
+      <c r="J48">
+        <v>-0.01377937945807231</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +2268,83 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B50">
-        <v>-0.09441266728390942</v>
+        <v>-0.09063328537857693</v>
       </c>
       <c r="C50">
-        <v>0.04011859079273612</v>
+        <v>0.03121882634990383</v>
       </c>
       <c r="D50">
-        <v>0.02889274734793142</v>
+        <v>-0.02240180874092733</v>
       </c>
       <c r="E50">
-        <v>-0.01476535754375569</v>
+        <v>-0.02527754740203113</v>
       </c>
       <c r="F50">
-        <v>0.001573098857655122</v>
+        <v>-0.004505770982912897</v>
       </c>
       <c r="G50">
-        <v>0.0418318311663699</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.001687525990884584</v>
+      </c>
+      <c r="H50">
+        <v>-0.03510755250673959</v>
+      </c>
+      <c r="I50">
+        <v>0.005308681841836589</v>
+      </c>
+      <c r="J50">
+        <v>-0.01012391250291136</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B51">
-        <v>-0.05623467692720013</v>
+        <v>-0.04003582477102935</v>
       </c>
       <c r="C51">
-        <v>-0.01986041276902336</v>
+        <v>-0.001787871327945279</v>
       </c>
       <c r="D51">
-        <v>-0.003934730747562841</v>
+        <v>0.0153148045525848</v>
       </c>
       <c r="E51">
-        <v>0.08168065904569319</v>
+        <v>-0.009220343414949411</v>
       </c>
       <c r="F51">
-        <v>0.05445671157381041</v>
+        <v>0.09850044912689565</v>
       </c>
       <c r="G51">
-        <v>0.05183046607355687</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.05204442682871049</v>
+      </c>
+      <c r="H51">
+        <v>-0.04948536514740396</v>
+      </c>
+      <c r="I51">
+        <v>-0.01565678424340236</v>
+      </c>
+      <c r="J51">
+        <v>-0.04545214269435236</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2364,307 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B53">
-        <v>-0.1429827377824676</v>
+        <v>-0.1271207017473231</v>
       </c>
       <c r="C53">
-        <v>0.01472967746737189</v>
+        <v>0.0344258190875488</v>
       </c>
       <c r="D53">
-        <v>0.05017568371324868</v>
+        <v>-0.004362027140324663</v>
       </c>
       <c r="E53">
-        <v>-0.04941503627602045</v>
+        <v>-0.05207585193069158</v>
       </c>
       <c r="F53">
-        <v>0.006266326375806136</v>
+        <v>-0.04072419366411196</v>
       </c>
       <c r="G53">
-        <v>0.0348199973962619</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.0224087183108336</v>
+      </c>
+      <c r="H53">
+        <v>0.003141817510203677</v>
+      </c>
+      <c r="I53">
+        <v>-0.03571588041611948</v>
+      </c>
+      <c r="J53">
+        <v>-0.03680796749936196</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>-0.025755402590325</v>
+        <v>-0.0256586211407112</v>
       </c>
       <c r="C54">
-        <v>0.005586487734796152</v>
+        <v>0.001883824943619317</v>
       </c>
       <c r="D54">
-        <v>0.02488651223755845</v>
+        <v>-0.005945900085116579</v>
       </c>
       <c r="E54">
-        <v>0.03658192857409428</v>
+        <v>-0.02605544990654367</v>
       </c>
       <c r="F54">
-        <v>0.0497653928204714</v>
+        <v>0.0368390852182947</v>
       </c>
       <c r="G54">
-        <v>0.001735884906588219</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.05315468346660549</v>
+      </c>
+      <c r="H54">
+        <v>-0.03984397516263614</v>
+      </c>
+      <c r="I54">
+        <v>-0.02640745860366623</v>
+      </c>
+      <c r="J54">
+        <v>0.004319436259583936</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B55">
-        <v>-0.100810043153444</v>
+        <v>-0.1002752485230894</v>
       </c>
       <c r="C55">
-        <v>-0.001460238333476406</v>
+        <v>0.0163145169669364</v>
       </c>
       <c r="D55">
-        <v>0.03677204963703076</v>
+        <v>-0.01651272454101613</v>
       </c>
       <c r="E55">
-        <v>-0.01157959384705592</v>
+        <v>-0.03409703154138431</v>
       </c>
       <c r="F55">
-        <v>-0.03410760185584667</v>
+        <v>-0.027324900156236</v>
       </c>
       <c r="G55">
-        <v>-0.007627699433301499</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.006125146983972106</v>
+      </c>
+      <c r="H55">
+        <v>-0.01032740820896236</v>
+      </c>
+      <c r="I55">
+        <v>-0.01882600840707109</v>
+      </c>
+      <c r="J55">
+        <v>-0.03089373927381083</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B56">
-        <v>-0.1781467940509514</v>
+        <v>-0.1675634604539584</v>
       </c>
       <c r="C56">
-        <v>-0.01138768337888736</v>
+        <v>0.011735520261416</v>
       </c>
       <c r="D56">
-        <v>0.08810682034876816</v>
+        <v>-0.002260251403504641</v>
       </c>
       <c r="E56">
-        <v>-0.1000534311607194</v>
+        <v>-0.08732390267802448</v>
       </c>
       <c r="F56">
-        <v>-0.07057550818224366</v>
+        <v>-0.08440105526949718</v>
       </c>
       <c r="G56">
-        <v>0.01099953321468967</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.02882241714573262</v>
+      </c>
+      <c r="H56">
+        <v>0.04352627205027289</v>
+      </c>
+      <c r="I56">
+        <v>-0.02955451463296204</v>
+      </c>
+      <c r="J56">
+        <v>-0.04237524388866045</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B57">
-        <v>-0.09060406835612275</v>
+        <v>-0.06705408300894714</v>
       </c>
       <c r="C57">
-        <v>0.03040112981930487</v>
+        <v>0.0370231051910101</v>
       </c>
       <c r="D57">
-        <v>0.02943361243506362</v>
+        <v>0.005304773560319867</v>
       </c>
       <c r="E57">
-        <v>0.0417263596757871</v>
+        <v>-0.009328092672330231</v>
       </c>
       <c r="F57">
-        <v>0.0341586694199001</v>
+        <v>0.06497483679563787</v>
       </c>
       <c r="G57">
-        <v>0.0420818785354445</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>-0.02561836352936632</v>
+      </c>
+      <c r="H57">
+        <v>-0.03094996905045305</v>
+      </c>
+      <c r="I57">
+        <v>0.01042888979108456</v>
+      </c>
+      <c r="J57">
+        <v>-0.03636861175758468</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B58">
-        <v>-0.184349910704174</v>
+        <v>-0.2081899076494989</v>
       </c>
       <c r="C58">
-        <v>0.0312773419005238</v>
+        <v>0.1166502442761928</v>
       </c>
       <c r="D58">
-        <v>-0.02058682886221647</v>
+        <v>0.05128181510835492</v>
       </c>
       <c r="E58">
-        <v>0.1208567247177245</v>
+        <v>0.007039941734800163</v>
       </c>
       <c r="F58">
-        <v>-0.06571836792605762</v>
+        <v>0.2335824532520663</v>
       </c>
       <c r="G58">
-        <v>0.04796787718701483</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.1574648928629816</v>
+      </c>
+      <c r="H58">
+        <v>-0.3643901185107987</v>
+      </c>
+      <c r="I58">
+        <v>0.1578355469779058</v>
+      </c>
+      <c r="J58">
+        <v>0.7644414011500144</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B59">
-        <v>-0.01683721145852901</v>
+        <v>-0.04057202450425839</v>
       </c>
       <c r="C59">
-        <v>-0.1959178199511735</v>
+        <v>-0.1769750779232779</v>
       </c>
       <c r="D59">
-        <v>0.0004965592023315285</v>
+        <v>0.09347671262862092</v>
       </c>
       <c r="E59">
-        <v>0.06408651740226046</v>
+        <v>0.006570127395190531</v>
       </c>
       <c r="F59">
-        <v>0.0136616045316821</v>
+        <v>0.07143426038741131</v>
       </c>
       <c r="G59">
-        <v>-0.002577669410849299</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.0004228088143943962</v>
+      </c>
+      <c r="H59">
+        <v>0.02433778450107258</v>
+      </c>
+      <c r="I59">
+        <v>-0.05994786271697814</v>
+      </c>
+      <c r="J59">
+        <v>0.01081444894656848</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B60">
-        <v>-0.1922736288663827</v>
+        <v>-0.1834052857694186</v>
       </c>
       <c r="C60">
-        <v>-0.08736242934077665</v>
+        <v>-0.02976545435990924</v>
       </c>
       <c r="D60">
-        <v>0.004965332708533734</v>
+        <v>0.06834030371237926</v>
       </c>
       <c r="E60">
-        <v>0.1871551690529868</v>
+        <v>-0.01242977177091278</v>
       </c>
       <c r="F60">
-        <v>0.04174304574778964</v>
+        <v>0.2101628210195596</v>
       </c>
       <c r="G60">
-        <v>0.002640955019896144</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.0742739161015654</v>
+      </c>
+      <c r="H60">
+        <v>0.274567067636887</v>
+      </c>
+      <c r="I60">
+        <v>0.0989997856698653</v>
+      </c>
+      <c r="J60">
+        <v>-0.02441644811787423</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B61">
-        <v>-0.04491908445209921</v>
+        <v>-0.03799101528480733</v>
       </c>
       <c r="C61">
-        <v>0.0113178076604002</v>
+        <v>0.02490915737780602</v>
       </c>
       <c r="D61">
-        <v>-0.0002812183333298121</v>
+        <v>-0.01031033986260937</v>
       </c>
       <c r="E61">
-        <v>0.03957448638032906</v>
+        <v>-0.005536305711104629</v>
       </c>
       <c r="F61">
-        <v>0.006099179957750477</v>
+        <v>0.04023579134770527</v>
       </c>
       <c r="G61">
-        <v>-0.002358030354591824</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.01057263369417072</v>
+      </c>
+      <c r="H61">
+        <v>0.004398519422270654</v>
+      </c>
+      <c r="I61">
+        <v>0.03913582765345479</v>
+      </c>
+      <c r="J61">
+        <v>-0.02368171372705139</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2684,243 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B63">
-        <v>-0.04253805249895101</v>
+        <v>-0.03115437493447963</v>
       </c>
       <c r="C63">
-        <v>0.01123174473015645</v>
+        <v>0.01790451411164742</v>
       </c>
       <c r="D63">
-        <v>0.01873319721026697</v>
+        <v>-0.00526721769046776</v>
       </c>
       <c r="E63">
-        <v>0.04401188595314737</v>
+        <v>-0.01331258578158869</v>
       </c>
       <c r="F63">
-        <v>0.01419903406588431</v>
+        <v>0.03002231114135602</v>
       </c>
       <c r="G63">
-        <v>0.02186656291880969</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.01290915858298091</v>
+      </c>
+      <c r="H63">
+        <v>-0.04924797922844299</v>
+      </c>
+      <c r="I63">
+        <v>-0.03427511447350681</v>
+      </c>
+      <c r="J63">
+        <v>-0.0328814706103453</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B64">
-        <v>-0.07627864933060433</v>
+        <v>-0.0585668639791278</v>
       </c>
       <c r="C64">
-        <v>0.05604741601686326</v>
+        <v>0.03835421280887659</v>
       </c>
       <c r="D64">
-        <v>0.06082201125932358</v>
+        <v>-0.03059514221927003</v>
       </c>
       <c r="E64">
-        <v>0.05703277641723031</v>
+        <v>-0.04398982630831873</v>
       </c>
       <c r="F64">
-        <v>0.04794758090898301</v>
+        <v>0.0495517987502693</v>
       </c>
       <c r="G64">
-        <v>-0.0413824337836169</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.05296636680067555</v>
+      </c>
+      <c r="H64">
+        <v>0.01064348770215206</v>
+      </c>
+      <c r="I64">
+        <v>-0.03240046373342793</v>
+      </c>
+      <c r="J64">
+        <v>-0.10308222594631</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>-0.01964741043769637</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>0.008338311711175196</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>-0.01042057351580815</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>-0.006370756647561904</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>0.0001061337737463211</v>
       </c>
       <c r="G65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.02145170098688152</v>
+      </c>
+      <c r="H65">
+        <v>0.004241441335315436</v>
+      </c>
+      <c r="I65">
+        <v>0.01517367181541003</v>
+      </c>
+      <c r="J65">
+        <v>-0.00295309349072579</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B66">
-        <v>-0.08933877101705993</v>
+        <v>-0.06860753725976874</v>
       </c>
       <c r="C66">
-        <v>0.03391126336995145</v>
+        <v>0.05418269013459524</v>
       </c>
       <c r="D66">
-        <v>0.03693028548452042</v>
+        <v>-0.00660238063718708</v>
       </c>
       <c r="E66">
-        <v>0.08056219962630291</v>
+        <v>-0.04595977175263428</v>
       </c>
       <c r="F66">
-        <v>0.03611872764556168</v>
+        <v>0.06945185217408678</v>
       </c>
       <c r="G66">
-        <v>0.00543157010776218</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.01568882723911525</v>
+      </c>
+      <c r="H66">
+        <v>-0.00253074635588512</v>
+      </c>
+      <c r="I66">
+        <v>0.0341181552881961</v>
+      </c>
+      <c r="J66">
+        <v>-0.07547075807089361</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B67">
-        <v>-0.06149426884129261</v>
+        <v>-0.04781733591093347</v>
       </c>
       <c r="C67">
-        <v>-0.01145017824411695</v>
+        <v>-0.004033185853684482</v>
       </c>
       <c r="D67">
-        <v>0.0124532580820792</v>
+        <v>0.004681766204372838</v>
       </c>
       <c r="E67">
-        <v>0.02238411117519484</v>
+        <v>-0.01035829214294474</v>
       </c>
       <c r="F67">
-        <v>0.003092264964686782</v>
+        <v>0.03893481720841087</v>
       </c>
       <c r="G67">
-        <v>-0.0238788218989693</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.03482710133685334</v>
+      </c>
+      <c r="H67">
+        <v>0.009502267029450831</v>
+      </c>
+      <c r="I67">
+        <v>0.03958073032400975</v>
+      </c>
+      <c r="J67">
+        <v>-0.01192612625914043</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B68">
-        <v>-0.02516736040583338</v>
+        <v>-0.04921496647090733</v>
       </c>
       <c r="C68">
-        <v>-0.2457153323929279</v>
+        <v>-0.2122024701679325</v>
       </c>
       <c r="D68">
-        <v>-0.02046827767321855</v>
+        <v>0.1075783154822094</v>
       </c>
       <c r="E68">
-        <v>0.04870601232365519</v>
+        <v>0.02305614753037026</v>
       </c>
       <c r="F68">
-        <v>0.01503991210939771</v>
+        <v>0.05562926016550224</v>
       </c>
       <c r="G68">
-        <v>0.02210261485772837</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.004391474612881483</v>
+      </c>
+      <c r="H68">
+        <v>0.01553741438226171</v>
+      </c>
+      <c r="I68">
+        <v>-0.1619584854518009</v>
+      </c>
+      <c r="J68">
+        <v>0.06753891997936351</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B69">
-        <v>-0.07033177786044981</v>
+        <v>-0.07276689798719373</v>
       </c>
       <c r="C69">
-        <v>0.01714881643668551</v>
+        <v>0.02098365845748643</v>
       </c>
       <c r="D69">
-        <v>0.02602209473063478</v>
+        <v>-0.0007552238691892996</v>
       </c>
       <c r="E69">
-        <v>-0.01399774811601415</v>
+        <v>-0.03029061805231457</v>
       </c>
       <c r="F69">
-        <v>0.007941859806398248</v>
+        <v>-0.001089843103571403</v>
       </c>
       <c r="G69">
-        <v>0.02612273731106453</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.02722544430350798</v>
+      </c>
+      <c r="H69">
+        <v>-0.02537725142570638</v>
+      </c>
+      <c r="I69">
+        <v>0.004329263780980811</v>
+      </c>
+      <c r="J69">
+        <v>-0.0303019314974423</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2940,275 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B71">
-        <v>-0.0187093944792623</v>
+        <v>-0.04920326068337813</v>
       </c>
       <c r="C71">
-        <v>-0.2774121999333096</v>
+        <v>-0.2270251315082414</v>
       </c>
       <c r="D71">
-        <v>-0.02370041654477812</v>
+        <v>0.1205446703129396</v>
       </c>
       <c r="E71">
-        <v>0.0790776852091639</v>
+        <v>0.04390135506902084</v>
       </c>
       <c r="F71">
-        <v>0.0197480061667292</v>
+        <v>0.07884766385264959</v>
       </c>
       <c r="G71">
-        <v>0.02438521902100351</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.01313062843616561</v>
+      </c>
+      <c r="H71">
+        <v>0.02708642691160638</v>
+      </c>
+      <c r="I71">
+        <v>-0.1300948819279394</v>
+      </c>
+      <c r="J71">
+        <v>0.03028610501892519</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B72">
-        <v>-0.1223250237242961</v>
+        <v>-0.1261890463545885</v>
       </c>
       <c r="C72">
-        <v>-0.005495559334510933</v>
+        <v>0.02737465255569187</v>
       </c>
       <c r="D72">
-        <v>0.04762259464452032</v>
+        <v>-0.001038949707577151</v>
       </c>
       <c r="E72">
-        <v>0.08954919139219976</v>
+        <v>-0.06196559453168178</v>
       </c>
       <c r="F72">
-        <v>-0.0211052598855107</v>
+        <v>0.08286803680075938</v>
       </c>
       <c r="G72">
-        <v>-0.001745097322606696</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.03865513726068805</v>
+      </c>
+      <c r="H72">
+        <v>0.01834072242405571</v>
+      </c>
+      <c r="I72">
+        <v>0.07210467479508187</v>
+      </c>
+      <c r="J72">
+        <v>0.08653951397048407</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B73">
-        <v>-0.2947860504017098</v>
+        <v>-0.2672937156678171</v>
       </c>
       <c r="C73">
-        <v>-0.1649642449526987</v>
+        <v>-0.04236885950199213</v>
       </c>
       <c r="D73">
-        <v>-0.0598227599108422</v>
+        <v>0.1200121130751455</v>
       </c>
       <c r="E73">
-        <v>0.3290930595678104</v>
+        <v>0.02804088587532126</v>
       </c>
       <c r="F73">
-        <v>0.002343538736403289</v>
+        <v>0.3117189999282237</v>
       </c>
       <c r="G73">
-        <v>-0.05878130428653042</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.184884293288082</v>
+      </c>
+      <c r="H73">
+        <v>0.4650619147919313</v>
+      </c>
+      <c r="I73">
+        <v>0.2844722938284021</v>
+      </c>
+      <c r="J73">
+        <v>-0.03899001673959041</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B74">
-        <v>-0.1623306681320068</v>
+        <v>-0.1518464552803668</v>
       </c>
       <c r="C74">
-        <v>0.002523495227753731</v>
+        <v>0.02660393667648557</v>
       </c>
       <c r="D74">
-        <v>0.04557746669470587</v>
+        <v>0.007269621175895486</v>
       </c>
       <c r="E74">
-        <v>-0.03319560268628663</v>
+        <v>-0.0497645513772928</v>
       </c>
       <c r="F74">
-        <v>-0.05274404655391007</v>
+        <v>-0.05537141019567728</v>
       </c>
       <c r="G74">
-        <v>0.05815292139783405</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.02014854856228427</v>
+      </c>
+      <c r="H74">
+        <v>0.02976085633721269</v>
+      </c>
+      <c r="I74">
+        <v>-0.02062820805605752</v>
+      </c>
+      <c r="J74">
+        <v>-0.08927477230645428</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B75">
-        <v>-0.233017200166752</v>
+        <v>-0.2419255246801418</v>
       </c>
       <c r="C75">
-        <v>-0.0005184940493856378</v>
+        <v>0.0278360465445029</v>
       </c>
       <c r="D75">
-        <v>0.07335661227184073</v>
+        <v>0.02409002147165866</v>
       </c>
       <c r="E75">
-        <v>-0.1259951130145116</v>
+        <v>-0.1040033422336624</v>
       </c>
       <c r="F75">
-        <v>-0.01609770249838984</v>
+        <v>-0.1431043426115501</v>
       </c>
       <c r="G75">
-        <v>0.0459972965068472</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.005838374863343571</v>
+      </c>
+      <c r="H75">
+        <v>0.01737792873297636</v>
+      </c>
+      <c r="I75">
+        <v>-0.08560120410255545</v>
+      </c>
+      <c r="J75">
+        <v>-0.01676642595538231</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B76">
-        <v>-0.2469215351894078</v>
+        <v>-0.2690358165847441</v>
       </c>
       <c r="C76">
-        <v>-0.009646887470712151</v>
+        <v>0.008195528055511108</v>
       </c>
       <c r="D76">
-        <v>0.114639952863298</v>
+        <v>-0.01091595046903092</v>
       </c>
       <c r="E76">
-        <v>-0.129431103014874</v>
+        <v>-0.1305790496132028</v>
       </c>
       <c r="F76">
-        <v>-0.06295900570688924</v>
+        <v>-0.1860706198888668</v>
       </c>
       <c r="G76">
-        <v>0.03143423247717112</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.05341687833749584</v>
+      </c>
+      <c r="H76">
+        <v>0.04461511728012457</v>
+      </c>
+      <c r="I76">
+        <v>-0.04450710082807747</v>
+      </c>
+      <c r="J76">
+        <v>-0.07043135456746716</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B77">
-        <v>-0.1337075867531913</v>
+        <v>-0.1271088618262787</v>
       </c>
       <c r="C77">
-        <v>0.0550796641189478</v>
+        <v>0.06197269215997096</v>
       </c>
       <c r="D77">
-        <v>-0.03747871772720519</v>
+        <v>-0.01484688833429632</v>
       </c>
       <c r="E77">
-        <v>0.1516648596850314</v>
+        <v>0.03158008179604527</v>
       </c>
       <c r="F77">
-        <v>0.02991603180778085</v>
+        <v>0.1616858514784415</v>
       </c>
       <c r="G77">
-        <v>-0.03832666777698635</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.0004045499879768045</v>
+      </c>
+      <c r="H77">
+        <v>-0.2320428327120655</v>
+      </c>
+      <c r="I77">
+        <v>-0.2445113970265876</v>
+      </c>
+      <c r="J77">
+        <v>-0.0942821685830518</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B78">
-        <v>-0.0871368256513005</v>
+        <v>-0.07925578189872615</v>
       </c>
       <c r="C78">
-        <v>0.05234799745766001</v>
+        <v>0.06786254186005825</v>
       </c>
       <c r="D78">
-        <v>-0.0110994615171006</v>
+        <v>-0.0329681914621576</v>
       </c>
       <c r="E78">
-        <v>0.0544095013562779</v>
+        <v>-0.009067260740618286</v>
       </c>
       <c r="F78">
-        <v>0.009963531387588587</v>
+        <v>0.07260995289605705</v>
       </c>
       <c r="G78">
-        <v>0.01542570677675952</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.01087257217376575</v>
+      </c>
+      <c r="H78">
+        <v>-0.02060655363761082</v>
+      </c>
+      <c r="I78">
+        <v>-0.0297841191603412</v>
+      </c>
+      <c r="J78">
+        <v>-0.04689611862680357</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +3228,83 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B80">
-        <v>-0.05538211938039554</v>
+        <v>-0.1501521623387506</v>
       </c>
       <c r="C80">
-        <v>0.02090806981019411</v>
+        <v>-0.4170089767308475</v>
       </c>
       <c r="D80">
-        <v>-0.0896536891651223</v>
+        <v>-0.8796291482724486</v>
       </c>
       <c r="E80">
-        <v>-0.04359450243691883</v>
+        <v>0.05300450711789616</v>
       </c>
       <c r="F80">
-        <v>-0.2839153588630188</v>
+        <v>0.04689574093400876</v>
       </c>
       <c r="G80">
-        <v>-0.920191605649761</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.04389563126155648</v>
+      </c>
+      <c r="H80">
+        <v>0.05484192274761868</v>
+      </c>
+      <c r="I80">
+        <v>0.02909121281333993</v>
+      </c>
+      <c r="J80">
+        <v>0.09768575905032056</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B81">
-        <v>-0.1612599078055509</v>
+        <v>-0.1791418374203196</v>
       </c>
       <c r="C81">
-        <v>-0.005892461909313394</v>
+        <v>0.005700925065020667</v>
       </c>
       <c r="D81">
-        <v>0.06574030827056142</v>
+        <v>0.008626034409697236</v>
       </c>
       <c r="E81">
-        <v>-0.1615977831783201</v>
+        <v>-0.08475387497497811</v>
       </c>
       <c r="F81">
-        <v>-0.07111279346103876</v>
+        <v>-0.1579739022880177</v>
       </c>
       <c r="G81">
-        <v>0.05671667500737317</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.02981246683068047</v>
+      </c>
+      <c r="H81">
+        <v>0.01114184159697722</v>
+      </c>
+      <c r="I81">
+        <v>-0.05784162065093405</v>
+      </c>
+      <c r="J81">
+        <v>7.5710864323131e-05</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +3324,51 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B83">
-        <v>-0.09351210651587694</v>
+        <v>-0.07006350669039106</v>
       </c>
       <c r="C83">
-        <v>0.06011115158486575</v>
+        <v>0.05240956901681218</v>
       </c>
       <c r="D83">
-        <v>-0.0672599160501907</v>
+        <v>-0.00589072303474575</v>
       </c>
       <c r="E83">
-        <v>0.01571723643631321</v>
+        <v>0.03741313985017268</v>
       </c>
       <c r="F83">
-        <v>0.06503428692137213</v>
+        <v>0.0457584541804415</v>
       </c>
       <c r="G83">
-        <v>0.01758799543999699</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.05950864620560583</v>
+      </c>
+      <c r="H83">
+        <v>-0.02451370205234003</v>
+      </c>
+      <c r="I83">
+        <v>-0.0193956817708075</v>
+      </c>
+      <c r="J83">
+        <v>-0.07931266643197338</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +3388,371 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B85">
-        <v>-0.2382255097636979</v>
+        <v>-0.2519123955069168</v>
       </c>
       <c r="C85">
-        <v>0.05234298256910885</v>
+        <v>0.05036782036765607</v>
       </c>
       <c r="D85">
-        <v>0.06373155250199701</v>
+        <v>-0.009513217450156311</v>
       </c>
       <c r="E85">
-        <v>-0.167246644640452</v>
+        <v>-0.09594032066999411</v>
       </c>
       <c r="F85">
-        <v>-0.05227172809683318</v>
+        <v>-0.1874785710267617</v>
       </c>
       <c r="G85">
-        <v>0.01583317929014266</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.006792721470737306</v>
+      </c>
+      <c r="H85">
+        <v>-0.02163113774734621</v>
+      </c>
+      <c r="I85">
+        <v>-0.05018483900388419</v>
+      </c>
+      <c r="J85">
+        <v>-0.07215626898463813</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B86">
-        <v>-0.04200020485271066</v>
+        <v>-0.02644351142333025</v>
       </c>
       <c r="C86">
-        <v>0.05750384104247375</v>
+        <v>0.05857739155030697</v>
       </c>
       <c r="D86">
-        <v>0.01914955920043966</v>
+        <v>-0.02553948028420591</v>
       </c>
       <c r="E86">
-        <v>0.0659826695410906</v>
+        <v>-0.01192513945163679</v>
       </c>
       <c r="F86">
-        <v>-0.004935750319829157</v>
+        <v>0.06760802669460479</v>
       </c>
       <c r="G86">
-        <v>0.0158887306371072</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.008027838054149047</v>
+      </c>
+      <c r="H86">
+        <v>-0.06612769013083626</v>
+      </c>
+      <c r="I86">
+        <v>-0.02204774543195535</v>
+      </c>
+      <c r="J86">
+        <v>-0.03990583915850003</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B87">
-        <v>-0.02968430835304551</v>
+        <v>-0.03472703630628263</v>
       </c>
       <c r="C87">
-        <v>-0.04939748361448482</v>
+        <v>-0.007971127797241013</v>
       </c>
       <c r="D87">
-        <v>-0.0001492831106066623</v>
+        <v>0.006523351802618936</v>
       </c>
       <c r="E87">
-        <v>0.09293501634234885</v>
+        <v>-0.006263038387595074</v>
       </c>
       <c r="F87">
-        <v>-0.02845417834390915</v>
+        <v>0.1001327950380871</v>
       </c>
       <c r="G87">
-        <v>0.01039909246631656</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.02598508257640354</v>
+      </c>
+      <c r="H87">
+        <v>-0.01426323965893655</v>
+      </c>
+      <c r="I87">
+        <v>0.01578941168465119</v>
+      </c>
+      <c r="J87">
+        <v>-0.02202980469254284</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B88">
-        <v>-0.03926799035459101</v>
+        <v>-0.02964919399376899</v>
       </c>
       <c r="C88">
-        <v>0.03316171270990503</v>
+        <v>0.01720417146556423</v>
       </c>
       <c r="D88">
-        <v>0.006074282798984386</v>
+        <v>-0.01815525254409989</v>
       </c>
       <c r="E88">
-        <v>-0.007639256003894827</v>
+        <v>-0.009962708157414218</v>
       </c>
       <c r="F88">
-        <v>-0.01285031912948937</v>
+        <v>-0.01340558198645975</v>
       </c>
       <c r="G88">
-        <v>0.005986284939718887</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.03842754027479062</v>
+      </c>
+      <c r="H88">
+        <v>-0.03531639358535224</v>
+      </c>
+      <c r="I88">
+        <v>0.02390454428324829</v>
+      </c>
+      <c r="J88">
+        <v>-0.02382464866200557</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B89">
-        <v>-0.01770188315732896</v>
+        <v>-0.06762247717621316</v>
       </c>
       <c r="C89">
-        <v>-0.4047500119110125</v>
+        <v>-0.3446793639949007</v>
       </c>
       <c r="D89">
-        <v>-0.09955244923786163</v>
+        <v>0.1916585091371842</v>
       </c>
       <c r="E89">
-        <v>0.005807193199427442</v>
+        <v>0.0657645545238932</v>
       </c>
       <c r="F89">
-        <v>0.0316911088824808</v>
+        <v>0.03467573575573577</v>
       </c>
       <c r="G89">
-        <v>0.03186129134568545</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.03711766693312407</v>
+      </c>
+      <c r="H89">
+        <v>-0.05496442120249955</v>
+      </c>
+      <c r="I89">
+        <v>-0.2618828316075905</v>
+      </c>
+      <c r="J89">
+        <v>0.06500360036317882</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B90">
-        <v>-0.01903920064719561</v>
+        <v>-0.0482678876916264</v>
       </c>
       <c r="C90">
-        <v>-0.3075754802263609</v>
+        <v>-0.2989820956136784</v>
       </c>
       <c r="D90">
-        <v>-0.05009259735003647</v>
+        <v>0.1473726839131079</v>
       </c>
       <c r="E90">
-        <v>0.04838963856127118</v>
+        <v>0.0499720857944466</v>
       </c>
       <c r="F90">
-        <v>0.03324495467309169</v>
+        <v>0.03589399954015274</v>
       </c>
       <c r="G90">
-        <v>0.02773704994024659</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.01988272620654057</v>
+      </c>
+      <c r="H90">
+        <v>-0.01102975223048264</v>
+      </c>
+      <c r="I90">
+        <v>-0.2206319259107548</v>
+      </c>
+      <c r="J90">
+        <v>0.04059752191478897</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B91">
-        <v>-0.270818709212646</v>
+        <v>-0.2926161842314498</v>
       </c>
       <c r="C91">
-        <v>0.033153219985189</v>
+        <v>0.04273118348082497</v>
       </c>
       <c r="D91">
-        <v>0.07128480789045039</v>
+        <v>0.004307294782649019</v>
       </c>
       <c r="E91">
-        <v>-0.2715637446190669</v>
+        <v>-0.08849701989525841</v>
       </c>
       <c r="F91">
-        <v>-0.0628975919364181</v>
+        <v>-0.2801236204807046</v>
       </c>
       <c r="G91">
-        <v>0.002655415921379121</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.02539017290429754</v>
+      </c>
+      <c r="H91">
+        <v>0.006115984348696823</v>
+      </c>
+      <c r="I91">
+        <v>-0.1035783497320972</v>
+      </c>
+      <c r="J91">
+        <v>-0.04613237457617463</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B92">
-        <v>-0.04875087355878061</v>
+        <v>-0.1099082943728018</v>
       </c>
       <c r="C92">
-        <v>-0.4058105040314187</v>
+        <v>-0.3944799854628073</v>
       </c>
       <c r="D92">
-        <v>-0.1593619741961873</v>
+        <v>0.1695930191826061</v>
       </c>
       <c r="E92">
-        <v>-0.08463843955642626</v>
+        <v>0.08287439812532296</v>
       </c>
       <c r="F92">
-        <v>-0.06101143086569469</v>
+        <v>-0.1252281552705126</v>
       </c>
       <c r="G92">
-        <v>-0.06260899695815654</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.08874607233786617</v>
+      </c>
+      <c r="H92">
+        <v>-0.4387859946376991</v>
+      </c>
+      <c r="I92">
+        <v>0.681729763896356</v>
+      </c>
+      <c r="J92">
+        <v>-0.2932736045227402</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B93">
-        <v>-0.007705427174378087</v>
+        <v>-0.05450059512589833</v>
       </c>
       <c r="C93">
-        <v>-0.3751812228486192</v>
+        <v>-0.3571825580625348</v>
       </c>
       <c r="D93">
-        <v>-0.07951801064473457</v>
+        <v>0.191945745758519</v>
       </c>
       <c r="E93">
-        <v>-0.02532871254543191</v>
+        <v>0.08407438655739455</v>
       </c>
       <c r="F93">
-        <v>-0.000653175139067024</v>
+        <v>0.004215750116264027</v>
       </c>
       <c r="G93">
-        <v>-0.01915745149682834</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.03199764128500979</v>
+      </c>
+      <c r="H93">
+        <v>0.02042624243892993</v>
+      </c>
+      <c r="I93">
+        <v>-0.1609236324042055</v>
+      </c>
+      <c r="J93">
+        <v>0.06376476518933938</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B94">
-        <v>-0.284599945663149</v>
+        <v>-0.3045361729360631</v>
       </c>
       <c r="C94">
-        <v>-0.0767550990370751</v>
+        <v>0.000631631730626397</v>
       </c>
       <c r="D94">
-        <v>0.05860282039216381</v>
+        <v>0.04531645234592609</v>
       </c>
       <c r="E94">
-        <v>-0.3819961333681865</v>
+        <v>-0.1323576162313964</v>
       </c>
       <c r="F94">
-        <v>-0.3834944812657294</v>
+        <v>-0.3446645508241171</v>
       </c>
       <c r="G94">
-        <v>0.1499153133707955</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.2112503950242005</v>
+      </c>
+      <c r="H94">
+        <v>-0.1236192789260524</v>
+      </c>
+      <c r="I94">
+        <v>-0.02686025486019044</v>
+      </c>
+      <c r="J94">
+        <v>0.150617873932453</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B95">
-        <v>-0.1863329118445215</v>
+        <v>-0.1334108424899155</v>
       </c>
       <c r="C95">
-        <v>-0.01766550293401642</v>
+        <v>0.06840789884110351</v>
       </c>
       <c r="D95">
-        <v>-6.724232899109788e-05</v>
+        <v>0.0768784610183397</v>
       </c>
       <c r="E95">
-        <v>-0.3491619903098903</v>
+        <v>-0.0348264273897268</v>
       </c>
       <c r="F95">
-        <v>0.8260247271631438</v>
+        <v>-0.08238119589640842</v>
       </c>
       <c r="G95">
-        <v>-0.2360987512017757</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.8924807339450416</v>
+      </c>
+      <c r="H95">
+        <v>0.1880367659321638</v>
+      </c>
+      <c r="I95">
+        <v>0.09624305182806012</v>
+      </c>
+      <c r="J95">
+        <v>0.2557374578823215</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3772,19 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3804,51 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B98">
-        <v>-0.2269943843609316</v>
+        <v>-0.2054737526791313</v>
       </c>
       <c r="C98">
-        <v>-0.1094996345317558</v>
+        <v>-0.03590339404692473</v>
       </c>
       <c r="D98">
-        <v>-0.03754158516896088</v>
+        <v>0.08662691783328579</v>
       </c>
       <c r="E98">
-        <v>0.08331437522035209</v>
+        <v>0.02740077835802464</v>
       </c>
       <c r="F98">
-        <v>0.03600701664096632</v>
+        <v>0.1625994014080678</v>
       </c>
       <c r="G98">
-        <v>0.02083940104222288</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.08947545703208115</v>
+      </c>
+      <c r="H98">
+        <v>0.3180581857726527</v>
+      </c>
+      <c r="I98">
+        <v>0.1581835703736215</v>
+      </c>
+      <c r="J98">
+        <v>0.03472516666652511</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3868,19 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,79 +3900,115 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B101">
-        <v>-0.02292823890884464</v>
+        <v>-0.01672051532842357</v>
       </c>
       <c r="C101">
-        <v>0.0248047438093674</v>
+        <v>0.02689664777819843</v>
       </c>
       <c r="D101">
-        <v>0.03101745022141672</v>
+        <v>-0.01758485828871789</v>
       </c>
       <c r="E101">
-        <v>0.03478088534486416</v>
+        <v>-0.032661127397206</v>
       </c>
       <c r="F101">
-        <v>0.01588864533588522</v>
+        <v>0.06529761699831185</v>
       </c>
       <c r="G101">
-        <v>0.008564740783673901</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.01922865622473441</v>
+      </c>
+      <c r="H101">
+        <v>-0.1073176211888689</v>
+      </c>
+      <c r="I101">
+        <v>0.05134418524097181</v>
+      </c>
+      <c r="J101">
+        <v>0.1110497245761678</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B102">
-        <v>-0.1161839905359597</v>
+        <v>-0.1217691896120003</v>
       </c>
       <c r="C102">
-        <v>0.02210718089625342</v>
+        <v>0.02005450086731276</v>
       </c>
       <c r="D102">
-        <v>0.043279001783244</v>
+        <v>-0.009566491694682122</v>
       </c>
       <c r="E102">
-        <v>-0.08912476125239872</v>
+        <v>-0.05520664144192512</v>
       </c>
       <c r="F102">
-        <v>-0.00378779340283709</v>
+        <v>-0.09941899454574664</v>
       </c>
       <c r="G102">
-        <v>-0.01316388290499716</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>-0.01394133247824193</v>
+      </c>
+      <c r="H102">
+        <v>0.01814576468203048</v>
+      </c>
+      <c r="I102">
+        <v>-0.05461814682869665</v>
+      </c>
+      <c r="J102">
+        <v>-0.04268270742038226</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B103">
-        <v>-0.0146872450273717</v>
+        <v>-0.03088817498473186</v>
       </c>
       <c r="C103">
-        <v>0.0001436903864787768</v>
+        <v>0.001541522072823648</v>
       </c>
       <c r="D103">
-        <v>0.0125666283609331</v>
+        <v>-0.008909739902231572</v>
       </c>
       <c r="E103">
-        <v>-0.02429380244781723</v>
+        <v>-0.01983245388394292</v>
       </c>
       <c r="F103">
-        <v>-0.005851025910084122</v>
+        <v>-0.02740561604266455</v>
       </c>
       <c r="G103">
-        <v>0.01131938004485768</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>-0.01272767827975442</v>
+      </c>
+      <c r="H103">
+        <v>-0.01544984121746473</v>
+      </c>
+      <c r="I103">
+        <v>-0.02944946226260828</v>
+      </c>
+      <c r="J103">
+        <v>-0.005164451107338174</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4026,15 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
         <v>0</v>
       </c>
     </row>
